--- a/docs/CareConnect-VitalSigns-Observation-1.xlsx
+++ b/docs/CareConnect-VitalSigns-Observation-1.xlsx
@@ -238,8 +238,7 @@
     <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content.</t>
   </si>
   <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. 
-This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element.   This element is labelled as a modifier because the implicit rules may provide additional knowledge about the resource that modifies it's meaning or interpretation.</t>
   </si>
   <si>
     <t>Resource.implicitRules</t>
@@ -470,8 +469,7 @@
     <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
-Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
   </si>
   <si>
     <t>Allows users to make use of identifiers when the identifier system is not known.</t>
@@ -562,7 +560,7 @@
     <t>Observation.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1)
 </t>
   </si>
   <si>
@@ -591,7 +589,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-CarePlan-1|DeviceRequest|ImmunizationRecommendation|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-MedicationRequest-1|NutritionOrder|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-ReferralRequest-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-ProcedureRequest-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-CarePlan-1|DeviceRequest|ImmunizationRecommendation|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-MedicationRequest-1|NutritionOrder|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-ReferralRequest-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-ProcedureRequest-1)
 </t>
   </si>
   <si>
@@ -968,7 +966,7 @@
     <t>snomedCTDescriptionID</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {https://fhir.hl7.org.uk/STU3/StructureDefinition/Extension-coding-sctdescid}
+    <t xml:space="preserve">Extension {https://hl7.org.uk/fhir/StructureDefinition/Extension-coding-sctdescid}
 </t>
   </si>
   <si>
@@ -993,7 +991,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1)
 </t>
   </si>
   <si>
@@ -1003,9 +1001,7 @@
     <t>The patient, or group of patients, location, or device whose characteristics (direct or indirect) are described by the observation and into whose record the observation is placed.  Comments: Indirect characteristics may be those of a specimen, fetus, donor,  other observer (for example a relative or EMT), or any observation made about the subject.</t>
   </si>
   <si>
-    <t>One would expect this element to be a cardinality  of 1..1.  The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.--If the target of the observation is different than the subject, the general extension [observation-focal-subject](http://hl7.org/fhir/STU3/extension-observation-focal-subject.html).  may be used.  However, the distinction between the patient's own value for an observation versus that of the fetus, or the donor or blood product unit, etc., are often specified in the observation code.</t>
+    <t>One would expect this element to be a cardinality  of 1..1.  The only circumstance in which the subject can be missing is when the observation is made by a device that does not know the patient. In this case, the observation SHALL be matched to a patient through some context/channel matching technique, and at this point, the observation should be updated.  If the target of the observation is different than the subject, the general extension [observation-focal-subject](http://hl7.org/fhir/STU3/extension-observation-focal-subject.html).  may be used.  However, the distinction between the patient's own value for an observation versus that of the fetus, or the donor or blood product unit, etc., are often specified in the observation code.</t>
   </si>
   <si>
     <t>Observations have no value if you don't know who or what they're about.</t>
@@ -1030,7 +1026,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-EpisodeOfCare-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Encounter-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-EpisodeOfCare-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Encounter-1)
 </t>
   </si>
   <si>
@@ -1121,7 +1117,7 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-RelatedPerson-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Practitioner-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Organization-1|https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Patient-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-RelatedPerson-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Practitioner-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Organization-1|https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Patient-1)
 </t>
   </si>
   <si>
@@ -1159,10 +1155,7 @@
     <t>The information determined as a result of making the observation, if the information has a simple value.</t>
   </si>
   <si>
-    <t>Normally, an observation will have either a single value or a set of related observations. A few observations (e.g. Apgar score) may have both a value and related observations (for an Apgar score, the observations from which the measure is derived). If a value is present, the datatype for this element should be determined by Observation.code. This element has a variable name depending on the type as follows: valueQuantity, valueCodeableConcept, valueString, valueBoolean, valueRange, valueRatio, valueSampledData, valueAttachment, valueTime, valueDateTime, or valuePeriod. (The name format is "'value' + the type name" with a capital on the first letter of the type).---If the data element is usually coded or if the type associated with the Observation.value defines a coded value, use CodeableConcept instead of string datatype even if the value is uncoded text.  A value set is bound to the ValueCodeableConcept element.    For further discussion and examples see the  [notes section](http://hl7.org/fhir/STU3/observation.html#notes) below.</t>
+    <t>Normally, an observation will have either a single value or a set of related observations. A few observations (e.g. Apgar score) may have both a value and related observations (for an Apgar score, the observations from which the measure is derived). If a value is present, the datatype for this element should be determined by Observation.code. This element has a variable name depending on the type as follows: valueQuantity, valueCodeableConcept, valueString, valueBoolean, valueRange, valueRatio, valueSampledData, valueAttachment, valueTime, valueDateTime, or valuePeriod. (The name format is "'value' + the type name" with a capital on the first letter of the type).   If the data element is usually coded or if the type associated with the Observation.value defines a coded value, use CodeableConcept instead of string datatype even if the value is uncoded text.  A value set is bound to the ValueCodeableConcept element.    For further discussion and examples see the  [notes section](http://hl7.org/fhir/STU3/observation.html#notes) below.</t>
   </si>
   <si>
     <t>An observation exists to have a value, though it may not if it is in error, or if it represents a group of observations.</t>
@@ -1508,7 +1501,7 @@
     <t>A code from the SNOMED Clinical Terminology UK with the expression (&lt;&lt;442083009 |anatomical or acquired body structure|).</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-BodySite-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-BodySite-1</t>
   </si>
   <si>
     <t>Observation.bodySite.coding.id</t>
@@ -1574,7 +1567,7 @@
     <t>A code from SNOMED Clinical Terminology UK</t>
   </si>
   <si>
-    <t>https://fhir.hl7.org.uk/STU3/ValueSet/CareConnect-ObservationMethod-1</t>
+    <t>https://hl7.org.uk/fhir/ValueSet/CareConnect-ObservationMethod-1</t>
   </si>
   <si>
     <t>Observation.method.coding.id</t>
@@ -1604,7 +1597,7 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-Specimen-1)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-Specimen-1)
 </t>
   </si>
   <si>
@@ -1761,13 +1754,7 @@
     <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
   </si>
   <si>
-    <t>&lt; 260245000 |Findings values| OR  -&lt; 365860008 |General clinical state finding| -OR -&lt; 250171008 |Clinical history or observation findings| OR  -&lt; 415229000 |Racial group| OR -&lt; 365400002 |Finding of puberty stage| OR-&lt; 443938003 |Procedure carried out on subject|</t>
+    <t>&lt; 260245000 |Findings values| OR   &lt; 365860008 |General clinical state finding|  OR  &lt; 250171008 |Clinical history or observation findings| OR   &lt; 415229000 |Racial group| OR  &lt; 365400002 |Finding of puberty stage| OR &lt; 443938003 |Procedure carried out on subject|</t>
   </si>
   <si>
     <t>OBX-10</t>
@@ -1889,7 +1876,7 @@
     <t>Observation.related.target</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://fhir.hl7.org.uk/STU3/StructureDefinition/CareConnect-VitalSigns-Observation-1|QuestionnaireResponse|Sequence)
+    <t xml:space="preserve">Reference(https://hl7.org.uk/fhir/StructureDefinition/CareConnect-VitalSigns-Observation-1|QuestionnaireResponse|Sequence)
 </t>
   </si>
   <si>
@@ -1941,8 +1928,7 @@
     <t>Describes what was observed. Sometimes this is called the observation "code".</t>
   </si>
   <si>
-    <t>&lt; 363787002 |Observable entity| OR -&lt; 386053000 |Evaluation procedure|</t>
+    <t>&lt; 363787002 |Observable entity| OR  &lt; 386053000 |Evaluation procedure|</t>
   </si>
   <si>
     <t>Observation.component.code.id</t>
@@ -2250,7 +2236,7 @@
     <col min="22" max="22" width="17.07421875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="115.28125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="67.76953125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="62.60546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.6875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.7265625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
